--- a/assignment1/Product_Survey_Results.xlsx
+++ b/assignment1/Product_Survey_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seungkimoon/Documents/Teaching/MA4829/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dirk_\Documents\Group_Assignments\assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE54387F-F904-E545-B989-806956A34D52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1295705F-2392-40B4-8AED-8FD28B0B8EC7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="29180" windowHeight="18500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="169">
   <si>
     <t>Question 4: Rate the current price of the product</t>
   </si>
@@ -1647,41 +1647,41 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A29" sqref="A29"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.33203125" customWidth="1"/>
-    <col min="11" max="11" width="20.83203125" customWidth="1"/>
-    <col min="12" max="12" width="22.83203125" customWidth="1"/>
-    <col min="13" max="13" width="54.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="256" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" customWidth="1"/>
+    <col min="13" max="13" width="54.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="256" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>80</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -1828,7 +1828,7 @@
       <c r="U4" s="31"/>
       <c r="V4" s="32"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
@@ -1845,7 +1845,7 @@
       <c r="U5" s="38"/>
       <c r="V5" s="39"/>
     </row>
-    <row r="6" spans="1:22" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>78</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -1941,7 +1941,7 @@
       <c r="U7" s="52"/>
       <c r="V7" s="53"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -1958,7 +1958,7 @@
       <c r="U8" s="38"/>
       <c r="V8" s="39"/>
     </row>
-    <row r="9" spans="1:22" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>55</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="28" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>51</v>
       </c>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="V10" s="58"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>51</v>
       </c>
@@ -2094,7 +2094,7 @@
       <c r="U11" s="42"/>
       <c r="V11" s="58"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>67</v>
       </c>
@@ -2111,7 +2111,7 @@
       <c r="U12" s="42"/>
       <c r="V12" s="58"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>68</v>
       </c>
@@ -2128,7 +2128,7 @@
       <c r="U13" s="42"/>
       <c r="V13" s="58"/>
     </row>
-    <row r="14" spans="1:22" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -2142,7 +2142,7 @@
       <c r="U14" s="52"/>
       <c r="V14" s="53"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="U15" s="38"/>
       <c r="V15" s="39"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>56</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="28" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>57</v>
       </c>
@@ -2258,7 +2258,7 @@
       <c r="U17" s="42"/>
       <c r="V17" s="58"/>
     </row>
-    <row r="18" spans="1:23" ht="28" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>71</v>
       </c>
@@ -2284,7 +2284,7 @@
       <c r="U18" s="42"/>
       <c r="V18" s="58"/>
     </row>
-    <row r="19" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -2298,7 +2298,7 @@
       <c r="U19" s="52"/>
       <c r="V19" s="53"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -2315,7 +2315,7 @@
       <c r="U20" s="62"/>
       <c r="V20" s="63"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>81</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -2398,7 +2398,7 @@
       <c r="U22" s="70"/>
       <c r="V22" s="71"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -2430,7 +2430,7 @@
       <c r="U23" s="40"/>
       <c r="V23" s="72"/>
     </row>
-    <row r="24" spans="1:23" s="3" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>10</v>
       </c>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="W24" s="109"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -2496,7 +2496,7 @@
       <c r="U25" s="62"/>
       <c r="V25" s="63"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
@@ -2513,7 +2513,7 @@
       <c r="U26" s="40"/>
       <c r="V26" s="72"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2582,7 +2582,7 @@
       </c>
       <c r="W27" s="109"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="W28" s="109"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="W29" s="109"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="W30" s="109"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="W31" s="109"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="W32" s="109"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="W33" s="109"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="W34" s="109"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="W35" s="109"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="W36" s="109"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="W37" s="109"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="W38" s="109"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -3410,7 +3410,7 @@
       </c>
       <c r="W39" s="109"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="W40" s="109"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="W41" s="109"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="W42" s="109"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="W43" s="109"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="W44" s="109"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="W45" s="109"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -3893,7 +3893,7 @@
       </c>
       <c r="W46" s="109"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="W47" s="109"/>
     </row>
-    <row r="48" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -3976,7 +3976,7 @@
       <c r="U48" s="31"/>
       <c r="V48" s="32"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>26</v>
       </c>
@@ -3993,7 +3993,7 @@
       <c r="U49" s="62"/>
       <c r="V49" s="63"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>82</v>
       </c>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="W50" s="109"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
@@ -4076,7 +4076,7 @@
       <c r="U51" s="69"/>
       <c r="V51" s="83"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>27</v>
       </c>
@@ -4093,7 +4093,7 @@
       <c r="U52" s="40"/>
       <c r="V52" s="72"/>
     </row>
-    <row r="53" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="3">
         <v>10.99</v>
       </c>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="W53" s="109"/>
     </row>
-    <row r="54" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
@@ -4173,7 +4173,7 @@
       <c r="U54" s="88"/>
       <c r="V54" s="89"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>28</v>
       </c>
@@ -4190,7 +4190,7 @@
       <c r="U55" s="62"/>
       <c r="V55" s="63"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>82</v>
       </c>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="W56" s="109"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
@@ -4273,7 +4273,7 @@
       <c r="U57" s="69"/>
       <c r="V57" s="83"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>29</v>
       </c>
@@ -4290,7 +4290,7 @@
       <c r="U58" s="40"/>
       <c r="V58" s="72"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>30</v>
       </c>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="W59" s="110"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
@@ -4370,7 +4370,7 @@
       <c r="U60" s="69"/>
       <c r="V60" s="83"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>31</v>
       </c>
@@ -4387,7 +4387,7 @@
       <c r="U61" s="40"/>
       <c r="V61" s="72"/>
     </row>
-    <row r="62" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="3">
         <v>5</v>
       </c>
@@ -4453,7 +4453,7 @@
       </c>
       <c r="W62" s="109"/>
     </row>
-    <row r="63" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
@@ -4467,7 +4467,7 @@
       <c r="U63" s="88"/>
       <c r="V63" s="89"/>
     </row>
-    <row r="64" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>32</v>
       </c>
@@ -4487,7 +4487,7 @@
       <c r="U64" s="40"/>
       <c r="V64" s="72"/>
     </row>
-    <row r="65" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>33</v>
       </c>
@@ -4556,7 +4556,7 @@
       </c>
       <c r="W65" s="109"/>
     </row>
-    <row r="66" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>34</v>
       </c>
@@ -4625,7 +4625,7 @@
       </c>
       <c r="W66" s="109"/>
     </row>
-    <row r="67" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>35</v>
       </c>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="W67" s="109"/>
     </row>
-    <row r="68" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>18</v>
       </c>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="W68" s="109"/>
     </row>
-    <row r="69" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>36</v>
       </c>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="W69" s="109"/>
     </row>
-    <row r="70" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>37</v>
       </c>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="W70" s="109"/>
     </row>
-    <row r="71" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>38</v>
       </c>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="W71" s="109"/>
     </row>
-    <row r="72" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>39</v>
       </c>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="W72" s="109"/>
     </row>
-    <row r="73" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>40</v>
       </c>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="W73" s="109"/>
     </row>
-    <row r="74" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>41</v>
       </c>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="W74" s="109"/>
     </row>
-    <row r="75" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>42</v>
       </c>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="W75" s="109"/>
     </row>
-    <row r="76" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>43</v>
       </c>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="W76" s="109"/>
     </row>
-    <row r="77" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>44</v>
       </c>
@@ -5384,7 +5384,7 @@
       </c>
       <c r="W77" s="109"/>
     </row>
-    <row r="78" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>45</v>
       </c>
@@ -5453,7 +5453,7 @@
       </c>
       <c r="W78" s="109"/>
     </row>
-    <row r="79" spans="1:23" s="3" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>46</v>
       </c>
@@ -5522,7 +5522,7 @@
       </c>
       <c r="W79" s="109"/>
     </row>
-    <row r="80" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
@@ -5536,7 +5536,7 @@
       <c r="U80" s="104"/>
       <c r="V80" s="105"/>
     </row>
-    <row r="81" spans="1:22" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>47</v>
       </c>
@@ -5553,7 +5553,7 @@
       <c r="U81" s="104"/>
       <c r="V81" s="105"/>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>33</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>34</v>
       </c>
@@ -5603,7 +5603,7 @@
       <c r="U83" s="69"/>
       <c r="V83" s="83"/>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>35</v>
       </c>
@@ -5647,7 +5647,7 @@
       <c r="U84" s="69"/>
       <c r="V84" s="83"/>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>18</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>36</v>
       </c>
@@ -5698,7 +5698,7 @@
       <c r="U86" s="69"/>
       <c r="V86" s="107"/>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>37</v>
       </c>
@@ -5740,7 +5740,7 @@
       <c r="U87" s="69"/>
       <c r="V87" s="107"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>38</v>
       </c>
@@ -5760,7 +5760,7 @@
       <c r="U88" s="69"/>
       <c r="V88" s="107"/>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>39</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>40</v>
       </c>
@@ -5816,7 +5816,7 @@
       </c>
       <c r="V90" s="107"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>41</v>
       </c>
@@ -5835,7 +5835,7 @@
       <c r="U91" s="69"/>
       <c r="V91" s="83"/>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>42</v>
       </c>
@@ -5856,7 +5856,7 @@
       <c r="U92" s="69"/>
       <c r="V92" s="83"/>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>43</v>
       </c>
@@ -5878,7 +5878,7 @@
       <c r="U93" s="69"/>
       <c r="V93" s="83"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>44</v>
       </c>
@@ -5911,7 +5911,7 @@
       <c r="U94" s="69"/>
       <c r="V94" s="83"/>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>45</v>
       </c>
@@ -5934,7 +5934,7 @@
       <c r="U95" s="69"/>
       <c r="V95" s="83"/>
     </row>
-    <row r="96" spans="1:22" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>46</v>
       </c>
@@ -5975,9 +5975,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="256" width="8.83203125" customWidth="1"/>
+    <col min="1" max="256" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -5992,9 +5992,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="256" width="8.83203125" customWidth="1"/>
+    <col min="1" max="256" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/assignment1/Product_Survey_Results.xlsx
+++ b/assignment1/Product_Survey_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dirk_\Documents\Group_Assignments\assignment1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\文档\GitHub\Group_Assignments\assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1295705F-2392-40B4-8AED-8FD28B0B8EC7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49F3670-68AF-481A-A254-654165370283}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="169">
   <si>
     <t>Question 4: Rate the current price of the product</t>
   </si>
@@ -570,12 +570,36 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="41">
@@ -1088,7 +1112,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1285,27 +1309,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
@@ -1319,13 +1322,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1644,15 +1738,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A29" sqref="A29"/>
-      <selection pane="topRight" activeCell="D12" sqref="D12"/>
+      <selection pane="topRight" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="59.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
@@ -2479,7 +2573,7 @@
       <c r="V24" s="78">
         <v>0</v>
       </c>
-      <c r="W24" s="109"/>
+      <c r="W24" s="99"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
@@ -2580,7 +2674,7 @@
       <c r="V27" s="81">
         <v>3</v>
       </c>
-      <c r="W27" s="109"/>
+      <c r="W27" s="99"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -2649,7 +2743,7 @@
       <c r="V28" s="81">
         <v>3</v>
       </c>
-      <c r="W28" s="109"/>
+      <c r="W28" s="99"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -2718,7 +2812,7 @@
       <c r="V29" s="81">
         <v>3</v>
       </c>
-      <c r="W29" s="109"/>
+      <c r="W29" s="99"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -2787,7 +2881,7 @@
       <c r="V30" s="81">
         <v>5</v>
       </c>
-      <c r="W30" s="109"/>
+      <c r="W30" s="99"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -2856,7 +2950,7 @@
       <c r="V31" s="81">
         <v>5</v>
       </c>
-      <c r="W31" s="109"/>
+      <c r="W31" s="99"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -2925,7 +3019,7 @@
       <c r="V32" s="81">
         <v>4</v>
       </c>
-      <c r="W32" s="109"/>
+      <c r="W32" s="99"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -2994,7 +3088,7 @@
       <c r="V33" s="81">
         <v>3</v>
       </c>
-      <c r="W33" s="109"/>
+      <c r="W33" s="99"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -3063,7 +3157,7 @@
       <c r="V34" s="81">
         <v>5</v>
       </c>
-      <c r="W34" s="109"/>
+      <c r="W34" s="99"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -3132,7 +3226,7 @@
       <c r="V35" s="81">
         <v>5</v>
       </c>
-      <c r="W35" s="109"/>
+      <c r="W35" s="99"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -3201,7 +3295,7 @@
       <c r="V36" s="81">
         <v>5</v>
       </c>
-      <c r="W36" s="109"/>
+      <c r="W36" s="99"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -3270,7 +3364,7 @@
       <c r="V37" s="81">
         <v>5</v>
       </c>
-      <c r="W37" s="109"/>
+      <c r="W37" s="99"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -3339,7 +3433,7 @@
       <c r="V38" s="81">
         <v>4</v>
       </c>
-      <c r="W38" s="109"/>
+      <c r="W38" s="99"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -3408,7 +3502,7 @@
       <c r="V39" s="81">
         <v>2</v>
       </c>
-      <c r="W39" s="109"/>
+      <c r="W39" s="99"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -3477,7 +3571,7 @@
       <c r="V40" s="81">
         <v>3</v>
       </c>
-      <c r="W40" s="109"/>
+      <c r="W40" s="99"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -3546,7 +3640,7 @@
       <c r="V41" s="81">
         <v>3</v>
       </c>
-      <c r="W41" s="109"/>
+      <c r="W41" s="99"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -3615,7 +3709,7 @@
       <c r="V42" s="81">
         <v>1</v>
       </c>
-      <c r="W42" s="109"/>
+      <c r="W42" s="99"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -3684,7 +3778,7 @@
       <c r="V43" s="81">
         <v>2</v>
       </c>
-      <c r="W43" s="109"/>
+      <c r="W43" s="99"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -3753,7 +3847,7 @@
       <c r="V44" s="81">
         <v>3</v>
       </c>
-      <c r="W44" s="109"/>
+      <c r="W44" s="99"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -3822,7 +3916,7 @@
       <c r="V45" s="81">
         <v>3</v>
       </c>
-      <c r="W45" s="109"/>
+      <c r="W45" s="99"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -3891,7 +3985,7 @@
       <c r="V46" s="81">
         <v>4</v>
       </c>
-      <c r="W46" s="109"/>
+      <c r="W46" s="99"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -3960,7 +4054,7 @@
       <c r="V47" s="81">
         <v>3</v>
       </c>
-      <c r="W47" s="109"/>
+      <c r="W47" s="99"/>
     </row>
     <row r="48" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F48" s="8"/>
@@ -4060,7 +4154,7 @@
       <c r="V50" s="67">
         <v>2</v>
       </c>
-      <c r="W50" s="109"/>
+      <c r="W50" s="99"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F51" s="8"/>
@@ -4157,7 +4251,7 @@
       <c r="V53" s="87">
         <v>10.99</v>
       </c>
-      <c r="W53" s="109"/>
+      <c r="W53" s="99"/>
     </row>
     <row r="54" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F54" s="8"/>
@@ -4257,7 +4351,7 @@
       <c r="V56" s="67">
         <v>3</v>
       </c>
-      <c r="W56" s="109"/>
+      <c r="W56" s="99"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F57" s="8"/>
@@ -4354,7 +4448,7 @@
       <c r="V59" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="W59" s="110"/>
+      <c r="W59" s="100"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F60" s="8"/>
@@ -4451,7 +4545,7 @@
       <c r="V62" s="87">
         <v>2</v>
       </c>
-      <c r="W62" s="109"/>
+      <c r="W62" s="99"/>
     </row>
     <row r="63" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F63" s="8"/>
@@ -4487,1054 +4581,1054 @@
       <c r="U64" s="40"/>
       <c r="V64" s="72"/>
     </row>
-    <row r="65" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
+    <row r="65" spans="1:23" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="B65" s="3">
-        <v>0</v>
-      </c>
-      <c r="C65" s="3">
-        <v>0</v>
-      </c>
-      <c r="D65" s="3">
-        <v>0</v>
-      </c>
-      <c r="E65" s="3">
-        <v>1</v>
-      </c>
-      <c r="F65" s="15">
-        <v>0</v>
-      </c>
-      <c r="G65" s="15">
-        <v>0</v>
-      </c>
-      <c r="H65" s="15">
-        <v>0</v>
-      </c>
-      <c r="I65" s="16">
+      <c r="B65" s="123">
+        <v>0</v>
+      </c>
+      <c r="C65" s="123">
+        <v>0</v>
+      </c>
+      <c r="D65" s="123">
+        <v>0</v>
+      </c>
+      <c r="E65" s="123">
+        <v>1</v>
+      </c>
+      <c r="F65" s="124">
+        <v>0</v>
+      </c>
+      <c r="G65" s="124">
+        <v>0</v>
+      </c>
+      <c r="H65" s="124">
+        <v>0</v>
+      </c>
+      <c r="I65" s="125">
         <v>0.2</v>
       </c>
-      <c r="J65" s="3">
-        <v>0</v>
-      </c>
-      <c r="K65" s="3">
-        <v>0</v>
-      </c>
-      <c r="L65" s="3">
-        <v>1</v>
-      </c>
-      <c r="M65" s="3">
-        <v>2</v>
-      </c>
-      <c r="N65" s="3">
-        <v>0</v>
-      </c>
-      <c r="O65" s="92">
-        <v>2</v>
-      </c>
-      <c r="P65" s="92">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="92">
-        <v>0</v>
-      </c>
-      <c r="R65" s="93">
-        <v>2</v>
-      </c>
-      <c r="S65" s="92">
-        <v>5</v>
-      </c>
-      <c r="T65" s="92">
-        <v>1</v>
-      </c>
-      <c r="U65" s="92">
-        <v>1</v>
-      </c>
-      <c r="V65" s="94">
-        <v>1</v>
-      </c>
-      <c r="W65" s="109"/>
-    </row>
-    <row r="66" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
+      <c r="J65" s="123">
+        <v>0</v>
+      </c>
+      <c r="K65" s="123">
+        <v>0</v>
+      </c>
+      <c r="L65" s="123">
+        <v>1</v>
+      </c>
+      <c r="M65" s="123">
+        <v>2</v>
+      </c>
+      <c r="N65" s="123">
+        <v>0</v>
+      </c>
+      <c r="O65" s="126">
+        <v>2</v>
+      </c>
+      <c r="P65" s="126">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="126">
+        <v>0</v>
+      </c>
+      <c r="R65" s="127">
+        <v>2</v>
+      </c>
+      <c r="S65" s="126">
+        <v>5</v>
+      </c>
+      <c r="T65" s="126">
+        <v>1</v>
+      </c>
+      <c r="U65" s="126">
+        <v>1</v>
+      </c>
+      <c r="V65" s="128">
+        <v>1</v>
+      </c>
+      <c r="W65" s="129"/>
+    </row>
+    <row r="66" spans="1:23" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="3">
-        <v>0</v>
-      </c>
-      <c r="C66" s="3">
-        <v>0</v>
-      </c>
-      <c r="D66" s="3">
-        <v>0</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="15">
-        <v>1</v>
-      </c>
-      <c r="G66" s="15">
-        <v>1</v>
-      </c>
-      <c r="H66" s="15">
-        <v>0</v>
-      </c>
-      <c r="I66" s="16">
-        <v>0</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2</v>
-      </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
-      <c r="O66" s="95">
-        <v>2</v>
-      </c>
-      <c r="P66" s="95">
-        <v>1</v>
-      </c>
-      <c r="Q66" s="95">
-        <v>0</v>
-      </c>
-      <c r="R66" s="96">
-        <v>2</v>
-      </c>
-      <c r="S66" s="95">
-        <v>2</v>
-      </c>
-      <c r="T66" s="95">
-        <v>1</v>
-      </c>
-      <c r="U66" s="95">
-        <v>1</v>
-      </c>
-      <c r="V66" s="97">
-        <v>2</v>
-      </c>
-      <c r="W66" s="109"/>
-    </row>
-    <row r="67" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
+      <c r="B66" s="123">
+        <v>0</v>
+      </c>
+      <c r="C66" s="123">
+        <v>0</v>
+      </c>
+      <c r="D66" s="123">
+        <v>0</v>
+      </c>
+      <c r="E66" s="123">
+        <v>0</v>
+      </c>
+      <c r="F66" s="124">
+        <v>1</v>
+      </c>
+      <c r="G66" s="124">
+        <v>1</v>
+      </c>
+      <c r="H66" s="124">
+        <v>0</v>
+      </c>
+      <c r="I66" s="125">
+        <v>0</v>
+      </c>
+      <c r="J66" s="123">
+        <v>1</v>
+      </c>
+      <c r="K66" s="123">
+        <v>2</v>
+      </c>
+      <c r="L66" s="123">
+        <v>2</v>
+      </c>
+      <c r="M66" s="123">
+        <v>0</v>
+      </c>
+      <c r="N66" s="123">
+        <v>0</v>
+      </c>
+      <c r="O66" s="130">
+        <v>2</v>
+      </c>
+      <c r="P66" s="130">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="130">
+        <v>0</v>
+      </c>
+      <c r="R66" s="131">
+        <v>2</v>
+      </c>
+      <c r="S66" s="130">
+        <v>2</v>
+      </c>
+      <c r="T66" s="130">
+        <v>1</v>
+      </c>
+      <c r="U66" s="130">
+        <v>1</v>
+      </c>
+      <c r="V66" s="132">
+        <v>2</v>
+      </c>
+      <c r="W66" s="129"/>
+    </row>
+    <row r="67" spans="1:23" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="B67" s="3">
-        <v>1</v>
-      </c>
-      <c r="C67" s="3">
-        <v>2</v>
-      </c>
-      <c r="D67" s="3">
-        <v>1</v>
-      </c>
-      <c r="E67" s="3">
+      <c r="B67" s="123">
+        <v>1</v>
+      </c>
+      <c r="C67" s="123">
+        <v>2</v>
+      </c>
+      <c r="D67" s="123">
+        <v>1</v>
+      </c>
+      <c r="E67" s="123">
         <v>15</v>
       </c>
-      <c r="F67" s="15">
-        <v>1</v>
-      </c>
-      <c r="G67" s="15">
-        <v>2</v>
-      </c>
-      <c r="H67" s="15">
-        <v>1</v>
-      </c>
-      <c r="I67" s="16">
-        <v>0</v>
-      </c>
-      <c r="J67" s="3">
-        <v>5</v>
-      </c>
-      <c r="K67" s="3">
-        <v>2</v>
-      </c>
-      <c r="L67" s="3">
-        <v>2</v>
-      </c>
-      <c r="M67" s="3">
-        <v>4</v>
-      </c>
-      <c r="N67" s="3">
-        <v>3</v>
-      </c>
-      <c r="O67" s="95">
+      <c r="F67" s="124">
+        <v>1</v>
+      </c>
+      <c r="G67" s="124">
+        <v>2</v>
+      </c>
+      <c r="H67" s="124">
+        <v>1</v>
+      </c>
+      <c r="I67" s="125">
+        <v>0</v>
+      </c>
+      <c r="J67" s="123">
+        <v>5</v>
+      </c>
+      <c r="K67" s="123">
+        <v>2</v>
+      </c>
+      <c r="L67" s="123">
+        <v>2</v>
+      </c>
+      <c r="M67" s="123">
+        <v>4</v>
+      </c>
+      <c r="N67" s="123">
+        <v>3</v>
+      </c>
+      <c r="O67" s="130">
         <v>10</v>
       </c>
-      <c r="P67" s="95">
-        <v>5</v>
-      </c>
-      <c r="Q67" s="95">
-        <v>5</v>
-      </c>
-      <c r="R67" s="96">
+      <c r="P67" s="130">
+        <v>5</v>
+      </c>
+      <c r="Q67" s="130">
+        <v>5</v>
+      </c>
+      <c r="R67" s="131">
         <v>10</v>
       </c>
-      <c r="S67" s="95">
-        <v>5</v>
-      </c>
-      <c r="T67" s="95">
-        <v>5</v>
-      </c>
-      <c r="U67" s="95">
-        <v>2</v>
-      </c>
-      <c r="V67" s="97">
-        <v>0</v>
-      </c>
-      <c r="W67" s="109"/>
-    </row>
-    <row r="68" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
+      <c r="S67" s="130">
+        <v>5</v>
+      </c>
+      <c r="T67" s="130">
+        <v>5</v>
+      </c>
+      <c r="U67" s="130">
+        <v>2</v>
+      </c>
+      <c r="V67" s="132">
+        <v>0</v>
+      </c>
+      <c r="W67" s="129"/>
+    </row>
+    <row r="68" spans="1:23" s="133" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="B68" s="3">
-        <v>1</v>
-      </c>
-      <c r="C68" s="3">
-        <v>2</v>
-      </c>
-      <c r="D68" s="3">
-        <v>0</v>
-      </c>
-      <c r="E68" s="3">
+      <c r="B68" s="133">
+        <v>1</v>
+      </c>
+      <c r="C68" s="133">
+        <v>2</v>
+      </c>
+      <c r="D68" s="133">
+        <v>0</v>
+      </c>
+      <c r="E68" s="133">
         <v>0.5</v>
       </c>
-      <c r="F68" s="15">
-        <v>0</v>
-      </c>
-      <c r="G68" s="15">
-        <v>0</v>
-      </c>
-      <c r="H68" s="15">
-        <v>0</v>
-      </c>
-      <c r="I68" s="16">
-        <v>0</v>
-      </c>
-      <c r="J68" s="3">
-        <v>1</v>
-      </c>
-      <c r="K68" s="3">
+      <c r="F68" s="134">
+        <v>0</v>
+      </c>
+      <c r="G68" s="134">
+        <v>0</v>
+      </c>
+      <c r="H68" s="134">
+        <v>0</v>
+      </c>
+      <c r="I68" s="135">
+        <v>0</v>
+      </c>
+      <c r="J68" s="133">
+        <v>1</v>
+      </c>
+      <c r="K68" s="133">
         <v>0.5</v>
       </c>
-      <c r="L68" s="3">
-        <v>1</v>
-      </c>
-      <c r="M68" s="3">
-        <v>1</v>
-      </c>
-      <c r="N68" s="3">
-        <v>1</v>
-      </c>
-      <c r="O68" s="95">
-        <v>0</v>
-      </c>
-      <c r="P68" s="95">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="95">
-        <v>5</v>
-      </c>
-      <c r="R68" s="96">
-        <v>2</v>
-      </c>
-      <c r="S68" s="95">
-        <v>2</v>
-      </c>
-      <c r="T68" s="95">
-        <v>1</v>
-      </c>
-      <c r="U68" s="95">
-        <v>1</v>
-      </c>
-      <c r="V68" s="97">
-        <v>1</v>
-      </c>
-      <c r="W68" s="109"/>
-    </row>
-    <row r="69" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
+      <c r="L68" s="133">
+        <v>1</v>
+      </c>
+      <c r="M68" s="133">
+        <v>1</v>
+      </c>
+      <c r="N68" s="133">
+        <v>1</v>
+      </c>
+      <c r="O68" s="136">
+        <v>0</v>
+      </c>
+      <c r="P68" s="136">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="136">
+        <v>5</v>
+      </c>
+      <c r="R68" s="137">
+        <v>2</v>
+      </c>
+      <c r="S68" s="136">
+        <v>2</v>
+      </c>
+      <c r="T68" s="136">
+        <v>1</v>
+      </c>
+      <c r="U68" s="136">
+        <v>1</v>
+      </c>
+      <c r="V68" s="138">
+        <v>1</v>
+      </c>
+      <c r="W68" s="139"/>
+    </row>
+    <row r="69" spans="1:23" s="133" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="B69" s="3">
-        <v>1</v>
-      </c>
-      <c r="C69" s="3">
-        <v>1</v>
-      </c>
-      <c r="D69" s="3">
-        <v>0</v>
-      </c>
-      <c r="E69" s="3">
-        <v>2</v>
-      </c>
-      <c r="F69" s="15">
-        <v>0</v>
-      </c>
-      <c r="G69" s="15">
-        <v>1</v>
-      </c>
-      <c r="H69" s="15">
-        <v>1</v>
-      </c>
-      <c r="I69" s="16">
+      <c r="B69" s="133">
+        <v>1</v>
+      </c>
+      <c r="C69" s="133">
+        <v>1</v>
+      </c>
+      <c r="D69" s="133">
+        <v>0</v>
+      </c>
+      <c r="E69" s="133">
+        <v>2</v>
+      </c>
+      <c r="F69" s="134">
+        <v>0</v>
+      </c>
+      <c r="G69" s="134">
+        <v>1</v>
+      </c>
+      <c r="H69" s="134">
+        <v>1</v>
+      </c>
+      <c r="I69" s="135">
         <v>0.2</v>
       </c>
-      <c r="J69" s="3">
-        <v>0</v>
-      </c>
-      <c r="K69" s="3">
-        <v>1</v>
-      </c>
-      <c r="L69" s="3">
-        <v>1</v>
-      </c>
-      <c r="M69" s="3">
-        <v>1</v>
-      </c>
-      <c r="N69" s="3">
-        <v>2</v>
-      </c>
-      <c r="O69" s="95">
-        <v>0</v>
-      </c>
-      <c r="P69" s="95">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="95">
-        <v>0</v>
-      </c>
-      <c r="R69" s="96">
-        <v>2</v>
-      </c>
-      <c r="S69" s="95">
-        <v>2</v>
-      </c>
-      <c r="T69" s="95">
-        <v>0</v>
-      </c>
-      <c r="U69" s="95">
-        <v>0</v>
-      </c>
-      <c r="V69" s="97">
-        <v>2</v>
-      </c>
-      <c r="W69" s="109"/>
-    </row>
-    <row r="70" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
+      <c r="J69" s="133">
+        <v>0</v>
+      </c>
+      <c r="K69" s="133">
+        <v>1</v>
+      </c>
+      <c r="L69" s="133">
+        <v>1</v>
+      </c>
+      <c r="M69" s="133">
+        <v>1</v>
+      </c>
+      <c r="N69" s="133">
+        <v>2</v>
+      </c>
+      <c r="O69" s="136">
+        <v>0</v>
+      </c>
+      <c r="P69" s="136">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="136">
+        <v>0</v>
+      </c>
+      <c r="R69" s="137">
+        <v>2</v>
+      </c>
+      <c r="S69" s="136">
+        <v>2</v>
+      </c>
+      <c r="T69" s="136">
+        <v>0</v>
+      </c>
+      <c r="U69" s="136">
+        <v>0</v>
+      </c>
+      <c r="V69" s="138">
+        <v>2</v>
+      </c>
+      <c r="W69" s="139"/>
+    </row>
+    <row r="70" spans="1:23" s="133" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="B70" s="3">
-        <v>2</v>
-      </c>
-      <c r="C70" s="3">
-        <v>1</v>
-      </c>
-      <c r="D70" s="3">
-        <v>5</v>
-      </c>
-      <c r="E70" s="3">
-        <v>2</v>
-      </c>
-      <c r="F70" s="15">
-        <v>1</v>
-      </c>
-      <c r="G70" s="15">
-        <v>0</v>
-      </c>
-      <c r="H70" s="15">
-        <v>1</v>
-      </c>
-      <c r="I70" s="16">
+      <c r="B70" s="133">
+        <v>2</v>
+      </c>
+      <c r="C70" s="133">
+        <v>1</v>
+      </c>
+      <c r="D70" s="133">
+        <v>5</v>
+      </c>
+      <c r="E70" s="133">
+        <v>2</v>
+      </c>
+      <c r="F70" s="134">
+        <v>1</v>
+      </c>
+      <c r="G70" s="134">
+        <v>0</v>
+      </c>
+      <c r="H70" s="134">
+        <v>1</v>
+      </c>
+      <c r="I70" s="135">
         <v>0.3</v>
       </c>
-      <c r="J70" s="3">
-        <v>2</v>
-      </c>
-      <c r="K70" s="3">
-        <v>1</v>
-      </c>
-      <c r="L70" s="3">
-        <v>2</v>
-      </c>
-      <c r="M70" s="3">
-        <v>1</v>
-      </c>
-      <c r="N70" s="3">
-        <v>1</v>
-      </c>
-      <c r="O70" s="95">
-        <v>1</v>
-      </c>
-      <c r="P70" s="95">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="95">
-        <v>1</v>
-      </c>
-      <c r="R70" s="96">
-        <v>2</v>
-      </c>
-      <c r="S70" s="95">
-        <v>1</v>
-      </c>
-      <c r="T70" s="95">
-        <v>2</v>
-      </c>
-      <c r="U70" s="95">
-        <v>0</v>
-      </c>
-      <c r="V70" s="97">
-        <v>2</v>
-      </c>
-      <c r="W70" s="109"/>
-    </row>
-    <row r="71" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
+      <c r="J70" s="133">
+        <v>2</v>
+      </c>
+      <c r="K70" s="133">
+        <v>1</v>
+      </c>
+      <c r="L70" s="133">
+        <v>2</v>
+      </c>
+      <c r="M70" s="133">
+        <v>1</v>
+      </c>
+      <c r="N70" s="133">
+        <v>1</v>
+      </c>
+      <c r="O70" s="136">
+        <v>1</v>
+      </c>
+      <c r="P70" s="136">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="136">
+        <v>1</v>
+      </c>
+      <c r="R70" s="137">
+        <v>2</v>
+      </c>
+      <c r="S70" s="136">
+        <v>1</v>
+      </c>
+      <c r="T70" s="136">
+        <v>2</v>
+      </c>
+      <c r="U70" s="136">
+        <v>0</v>
+      </c>
+      <c r="V70" s="138">
+        <v>2</v>
+      </c>
+      <c r="W70" s="139"/>
+    </row>
+    <row r="71" spans="1:23" s="133" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="B71" s="3">
-        <v>0</v>
-      </c>
-      <c r="C71" s="3">
-        <v>1</v>
-      </c>
-      <c r="D71" s="3">
-        <v>0</v>
-      </c>
-      <c r="E71" s="3">
-        <v>0</v>
-      </c>
-      <c r="F71" s="15">
-        <v>1</v>
-      </c>
-      <c r="G71" s="15">
-        <v>0</v>
-      </c>
-      <c r="H71" s="15">
-        <v>0</v>
-      </c>
-      <c r="I71" s="16">
-        <v>0</v>
-      </c>
-      <c r="J71" s="3">
-        <v>2</v>
-      </c>
-      <c r="K71" s="3">
-        <v>1</v>
-      </c>
-      <c r="L71" s="3">
-        <v>2</v>
-      </c>
-      <c r="M71" s="3">
-        <v>0</v>
-      </c>
-      <c r="N71" s="3">
-        <v>1</v>
-      </c>
-      <c r="O71" s="95">
-        <v>1</v>
-      </c>
-      <c r="P71" s="95">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="95">
-        <v>2</v>
-      </c>
-      <c r="R71" s="96">
-        <v>5</v>
-      </c>
-      <c r="S71" s="95">
-        <v>1</v>
-      </c>
-      <c r="T71" s="95">
-        <v>0</v>
-      </c>
-      <c r="U71" s="95">
-        <v>1</v>
-      </c>
-      <c r="V71" s="97">
-        <v>2</v>
-      </c>
-      <c r="W71" s="109"/>
-    </row>
-    <row r="72" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
+      <c r="B71" s="133">
+        <v>0</v>
+      </c>
+      <c r="C71" s="133">
+        <v>1</v>
+      </c>
+      <c r="D71" s="133">
+        <v>0</v>
+      </c>
+      <c r="E71" s="133">
+        <v>0</v>
+      </c>
+      <c r="F71" s="134">
+        <v>1</v>
+      </c>
+      <c r="G71" s="134">
+        <v>0</v>
+      </c>
+      <c r="H71" s="134">
+        <v>0</v>
+      </c>
+      <c r="I71" s="135">
+        <v>0</v>
+      </c>
+      <c r="J71" s="133">
+        <v>2</v>
+      </c>
+      <c r="K71" s="133">
+        <v>1</v>
+      </c>
+      <c r="L71" s="133">
+        <v>2</v>
+      </c>
+      <c r="M71" s="133">
+        <v>0</v>
+      </c>
+      <c r="N71" s="133">
+        <v>1</v>
+      </c>
+      <c r="O71" s="136">
+        <v>1</v>
+      </c>
+      <c r="P71" s="136">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="136">
+        <v>2</v>
+      </c>
+      <c r="R71" s="137">
+        <v>5</v>
+      </c>
+      <c r="S71" s="136">
+        <v>1</v>
+      </c>
+      <c r="T71" s="136">
+        <v>0</v>
+      </c>
+      <c r="U71" s="136">
+        <v>1</v>
+      </c>
+      <c r="V71" s="138">
+        <v>2</v>
+      </c>
+      <c r="W71" s="139"/>
+    </row>
+    <row r="72" spans="1:23" s="133" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="B72" s="3">
-        <v>2</v>
-      </c>
-      <c r="C72" s="3">
-        <v>0</v>
-      </c>
-      <c r="D72" s="3">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
-        <v>2</v>
-      </c>
-      <c r="F72" s="15">
-        <v>1</v>
-      </c>
-      <c r="G72" s="15">
-        <v>0</v>
-      </c>
-      <c r="H72" s="15">
-        <v>0</v>
-      </c>
-      <c r="I72" s="16">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>1</v>
-      </c>
-      <c r="K72" s="3">
-        <v>1</v>
-      </c>
-      <c r="L72" s="3">
-        <v>1</v>
-      </c>
-      <c r="M72" s="3">
-        <v>1</v>
-      </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="O72" s="95">
-        <v>1</v>
-      </c>
-      <c r="P72" s="95">
-        <v>1</v>
-      </c>
-      <c r="Q72" s="95">
-        <v>2</v>
-      </c>
-      <c r="R72" s="96">
-        <v>2</v>
-      </c>
-      <c r="S72" s="95">
-        <v>1</v>
-      </c>
-      <c r="T72" s="95">
-        <v>0</v>
-      </c>
-      <c r="U72" s="95">
-        <v>1</v>
-      </c>
-      <c r="V72" s="97">
-        <v>5</v>
-      </c>
-      <c r="W72" s="109"/>
-    </row>
-    <row r="73" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
+      <c r="B72" s="133">
+        <v>2</v>
+      </c>
+      <c r="C72" s="133">
+        <v>0</v>
+      </c>
+      <c r="D72" s="133">
+        <v>5</v>
+      </c>
+      <c r="E72" s="133">
+        <v>2</v>
+      </c>
+      <c r="F72" s="134">
+        <v>1</v>
+      </c>
+      <c r="G72" s="134">
+        <v>0</v>
+      </c>
+      <c r="H72" s="134">
+        <v>0</v>
+      </c>
+      <c r="I72" s="135">
+        <v>0</v>
+      </c>
+      <c r="J72" s="133">
+        <v>1</v>
+      </c>
+      <c r="K72" s="133">
+        <v>1</v>
+      </c>
+      <c r="L72" s="133">
+        <v>1</v>
+      </c>
+      <c r="M72" s="133">
+        <v>1</v>
+      </c>
+      <c r="N72" s="133">
+        <v>0</v>
+      </c>
+      <c r="O72" s="136">
+        <v>1</v>
+      </c>
+      <c r="P72" s="136">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="136">
+        <v>2</v>
+      </c>
+      <c r="R72" s="137">
+        <v>2</v>
+      </c>
+      <c r="S72" s="136">
+        <v>1</v>
+      </c>
+      <c r="T72" s="136">
+        <v>0</v>
+      </c>
+      <c r="U72" s="136">
+        <v>1</v>
+      </c>
+      <c r="V72" s="138">
+        <v>5</v>
+      </c>
+      <c r="W72" s="139"/>
+    </row>
+    <row r="73" spans="1:23" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="B73" s="3">
-        <v>0</v>
-      </c>
-      <c r="C73" s="3">
-        <v>2</v>
-      </c>
-      <c r="D73" s="3">
-        <v>5</v>
-      </c>
-      <c r="E73" s="3">
-        <v>1</v>
-      </c>
-      <c r="F73" s="15">
-        <v>2</v>
-      </c>
-      <c r="G73" s="15">
-        <v>1</v>
-      </c>
-      <c r="H73" s="15">
-        <v>2</v>
-      </c>
-      <c r="I73" s="16">
-        <v>0</v>
-      </c>
-      <c r="J73" s="3">
-        <v>2</v>
-      </c>
-      <c r="K73" s="3">
-        <v>0</v>
-      </c>
-      <c r="L73" s="3">
-        <v>2</v>
-      </c>
-      <c r="M73" s="3">
-        <v>0</v>
-      </c>
-      <c r="N73" s="3">
-        <v>0</v>
-      </c>
-      <c r="O73" s="95">
-        <v>5</v>
-      </c>
-      <c r="P73" s="95">
-        <v>5</v>
-      </c>
-      <c r="Q73" s="95">
-        <v>5</v>
-      </c>
-      <c r="R73" s="96">
-        <v>2</v>
-      </c>
-      <c r="S73" s="95">
-        <v>1</v>
-      </c>
-      <c r="T73" s="95">
-        <v>5</v>
-      </c>
-      <c r="U73" s="95">
-        <v>2</v>
-      </c>
-      <c r="V73" s="97">
-        <v>1</v>
-      </c>
-      <c r="W73" s="109"/>
-    </row>
-    <row r="74" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
+      <c r="B73" s="123">
+        <v>0</v>
+      </c>
+      <c r="C73" s="123">
+        <v>2</v>
+      </c>
+      <c r="D73" s="123">
+        <v>5</v>
+      </c>
+      <c r="E73" s="123">
+        <v>1</v>
+      </c>
+      <c r="F73" s="124">
+        <v>2</v>
+      </c>
+      <c r="G73" s="124">
+        <v>1</v>
+      </c>
+      <c r="H73" s="124">
+        <v>2</v>
+      </c>
+      <c r="I73" s="125">
+        <v>0</v>
+      </c>
+      <c r="J73" s="123">
+        <v>2</v>
+      </c>
+      <c r="K73" s="123">
+        <v>0</v>
+      </c>
+      <c r="L73" s="123">
+        <v>2</v>
+      </c>
+      <c r="M73" s="123">
+        <v>0</v>
+      </c>
+      <c r="N73" s="123">
+        <v>0</v>
+      </c>
+      <c r="O73" s="130">
+        <v>5</v>
+      </c>
+      <c r="P73" s="130">
+        <v>5</v>
+      </c>
+      <c r="Q73" s="130">
+        <v>5</v>
+      </c>
+      <c r="R73" s="131">
+        <v>2</v>
+      </c>
+      <c r="S73" s="130">
+        <v>1</v>
+      </c>
+      <c r="T73" s="130">
+        <v>5</v>
+      </c>
+      <c r="U73" s="130">
+        <v>2</v>
+      </c>
+      <c r="V73" s="132">
+        <v>1</v>
+      </c>
+      <c r="W73" s="129"/>
+    </row>
+    <row r="74" spans="1:23" s="101" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="B74" s="3">
-        <v>1</v>
-      </c>
-      <c r="C74" s="3">
-        <v>2</v>
-      </c>
-      <c r="D74" s="3">
-        <v>5</v>
-      </c>
-      <c r="E74" s="3">
-        <v>2</v>
-      </c>
-      <c r="F74" s="15">
-        <v>1</v>
-      </c>
-      <c r="G74" s="15">
-        <v>1</v>
-      </c>
-      <c r="H74" s="15">
-        <v>0</v>
-      </c>
-      <c r="I74" s="16">
-        <v>0</v>
-      </c>
-      <c r="J74" s="3">
-        <v>0</v>
-      </c>
-      <c r="K74" s="3">
-        <v>0</v>
-      </c>
-      <c r="L74" s="3">
-        <v>1</v>
-      </c>
-      <c r="M74" s="3">
-        <v>0</v>
-      </c>
-      <c r="N74" s="3">
-        <v>0</v>
-      </c>
-      <c r="O74" s="95">
-        <v>0</v>
-      </c>
-      <c r="P74" s="95">
-        <v>1</v>
-      </c>
-      <c r="Q74" s="95">
-        <v>1</v>
-      </c>
-      <c r="R74" s="96">
-        <v>2</v>
-      </c>
-      <c r="S74" s="95">
-        <v>2</v>
-      </c>
-      <c r="T74" s="95">
-        <v>1</v>
-      </c>
-      <c r="U74" s="95">
-        <v>1</v>
-      </c>
-      <c r="V74" s="97">
-        <v>1</v>
-      </c>
-      <c r="W74" s="109"/>
-    </row>
-    <row r="75" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
+      <c r="B74" s="101">
+        <v>1</v>
+      </c>
+      <c r="C74" s="101">
+        <v>2</v>
+      </c>
+      <c r="D74" s="101">
+        <v>5</v>
+      </c>
+      <c r="E74" s="101">
+        <v>2</v>
+      </c>
+      <c r="F74" s="102">
+        <v>1</v>
+      </c>
+      <c r="G74" s="102">
+        <v>1</v>
+      </c>
+      <c r="H74" s="102">
+        <v>0</v>
+      </c>
+      <c r="I74" s="103">
+        <v>0</v>
+      </c>
+      <c r="J74" s="101">
+        <v>0</v>
+      </c>
+      <c r="K74" s="101">
+        <v>0</v>
+      </c>
+      <c r="L74" s="101">
+        <v>1</v>
+      </c>
+      <c r="M74" s="101">
+        <v>0</v>
+      </c>
+      <c r="N74" s="101">
+        <v>0</v>
+      </c>
+      <c r="O74" s="104">
+        <v>0</v>
+      </c>
+      <c r="P74" s="104">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="104">
+        <v>1</v>
+      </c>
+      <c r="R74" s="105">
+        <v>2</v>
+      </c>
+      <c r="S74" s="104">
+        <v>2</v>
+      </c>
+      <c r="T74" s="104">
+        <v>1</v>
+      </c>
+      <c r="U74" s="104">
+        <v>1</v>
+      </c>
+      <c r="V74" s="106">
+        <v>1</v>
+      </c>
+      <c r="W74" s="107"/>
+    </row>
+    <row r="75" spans="1:23" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="B75" s="3">
-        <v>1</v>
-      </c>
-      <c r="C75" s="3">
-        <v>0</v>
-      </c>
-      <c r="D75" s="3">
-        <v>1</v>
-      </c>
-      <c r="E75" s="3">
-        <v>2</v>
-      </c>
-      <c r="F75" s="15">
-        <v>2</v>
-      </c>
-      <c r="G75" s="15">
-        <v>0</v>
-      </c>
-      <c r="H75" s="15">
-        <v>1</v>
-      </c>
-      <c r="I75" s="16">
-        <v>0</v>
-      </c>
-      <c r="J75" s="3">
-        <v>1</v>
-      </c>
-      <c r="K75" s="3">
-        <v>0</v>
-      </c>
-      <c r="L75" s="3">
-        <v>1</v>
-      </c>
-      <c r="M75" s="3">
-        <v>0</v>
-      </c>
-      <c r="N75" s="3">
-        <v>0</v>
-      </c>
-      <c r="O75" s="95">
-        <v>1</v>
-      </c>
-      <c r="P75" s="95">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="95">
-        <v>1</v>
-      </c>
-      <c r="R75" s="96">
-        <v>2</v>
-      </c>
-      <c r="S75" s="95">
-        <v>1</v>
-      </c>
-      <c r="T75" s="95">
-        <v>0</v>
-      </c>
-      <c r="U75" s="95">
-        <v>0</v>
-      </c>
-      <c r="V75" s="97">
-        <v>1</v>
-      </c>
-      <c r="W75" s="109"/>
-    </row>
-    <row r="76" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
+      <c r="B75" s="123">
+        <v>1</v>
+      </c>
+      <c r="C75" s="123">
+        <v>0</v>
+      </c>
+      <c r="D75" s="123">
+        <v>1</v>
+      </c>
+      <c r="E75" s="123">
+        <v>2</v>
+      </c>
+      <c r="F75" s="124">
+        <v>2</v>
+      </c>
+      <c r="G75" s="124">
+        <v>0</v>
+      </c>
+      <c r="H75" s="124">
+        <v>1</v>
+      </c>
+      <c r="I75" s="125">
+        <v>0</v>
+      </c>
+      <c r="J75" s="123">
+        <v>1</v>
+      </c>
+      <c r="K75" s="123">
+        <v>0</v>
+      </c>
+      <c r="L75" s="123">
+        <v>1</v>
+      </c>
+      <c r="M75" s="123">
+        <v>0</v>
+      </c>
+      <c r="N75" s="123">
+        <v>0</v>
+      </c>
+      <c r="O75" s="130">
+        <v>1</v>
+      </c>
+      <c r="P75" s="130">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="130">
+        <v>1</v>
+      </c>
+      <c r="R75" s="131">
+        <v>2</v>
+      </c>
+      <c r="S75" s="130">
+        <v>1</v>
+      </c>
+      <c r="T75" s="130">
+        <v>0</v>
+      </c>
+      <c r="U75" s="130">
+        <v>0</v>
+      </c>
+      <c r="V75" s="132">
+        <v>1</v>
+      </c>
+      <c r="W75" s="129"/>
+    </row>
+    <row r="76" spans="1:23" s="133" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="B76" s="3">
-        <v>0</v>
-      </c>
-      <c r="C76" s="3">
-        <v>5</v>
-      </c>
-      <c r="D76" s="3">
-        <v>0</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="15">
-        <v>2</v>
-      </c>
-      <c r="G76" s="15">
-        <v>1</v>
-      </c>
-      <c r="H76" s="15">
-        <v>0</v>
-      </c>
-      <c r="I76" s="16">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
-        <v>2</v>
-      </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3">
-        <v>5</v>
-      </c>
-      <c r="O76" s="95">
-        <v>5</v>
-      </c>
-      <c r="P76" s="95">
-        <v>2</v>
-      </c>
-      <c r="Q76" s="95">
-        <v>5</v>
-      </c>
-      <c r="R76" s="96">
-        <v>2</v>
-      </c>
-      <c r="S76" s="95">
-        <v>2</v>
-      </c>
-      <c r="T76" s="95">
-        <v>0</v>
-      </c>
-      <c r="U76" s="95">
-        <v>0</v>
-      </c>
-      <c r="V76" s="97">
-        <v>2</v>
-      </c>
-      <c r="W76" s="109"/>
-    </row>
-    <row r="77" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
+      <c r="B76" s="133">
+        <v>0</v>
+      </c>
+      <c r="C76" s="133">
+        <v>5</v>
+      </c>
+      <c r="D76" s="133">
+        <v>0</v>
+      </c>
+      <c r="E76" s="133">
+        <v>0</v>
+      </c>
+      <c r="F76" s="134">
+        <v>2</v>
+      </c>
+      <c r="G76" s="134">
+        <v>1</v>
+      </c>
+      <c r="H76" s="134">
+        <v>0</v>
+      </c>
+      <c r="I76" s="135">
+        <v>0</v>
+      </c>
+      <c r="J76" s="133">
+        <v>2</v>
+      </c>
+      <c r="K76" s="133">
+        <v>0</v>
+      </c>
+      <c r="L76" s="133">
+        <v>0</v>
+      </c>
+      <c r="M76" s="133">
+        <v>0</v>
+      </c>
+      <c r="N76" s="133">
+        <v>5</v>
+      </c>
+      <c r="O76" s="136">
+        <v>5</v>
+      </c>
+      <c r="P76" s="136">
+        <v>2</v>
+      </c>
+      <c r="Q76" s="136">
+        <v>5</v>
+      </c>
+      <c r="R76" s="137">
+        <v>2</v>
+      </c>
+      <c r="S76" s="136">
+        <v>2</v>
+      </c>
+      <c r="T76" s="136">
+        <v>0</v>
+      </c>
+      <c r="U76" s="136">
+        <v>0</v>
+      </c>
+      <c r="V76" s="138">
+        <v>2</v>
+      </c>
+      <c r="W76" s="139"/>
+    </row>
+    <row r="77" spans="1:23" s="133" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="3">
-        <v>2</v>
-      </c>
-      <c r="C77" s="3">
-        <v>2</v>
-      </c>
-      <c r="D77" s="3">
-        <v>2</v>
-      </c>
-      <c r="E77" s="3">
-        <v>1</v>
-      </c>
-      <c r="F77" s="15">
-        <v>1</v>
-      </c>
-      <c r="G77" s="15">
-        <v>1</v>
-      </c>
-      <c r="H77" s="15">
-        <v>0</v>
-      </c>
-      <c r="I77" s="16">
-        <v>0</v>
-      </c>
-      <c r="J77" s="3">
-        <v>1</v>
-      </c>
-      <c r="K77" s="3">
-        <v>0</v>
-      </c>
-      <c r="L77" s="3">
-        <v>0</v>
-      </c>
-      <c r="M77" s="3">
-        <v>0</v>
-      </c>
-      <c r="N77" s="3">
-        <v>0</v>
-      </c>
-      <c r="O77" s="95">
-        <v>1</v>
-      </c>
-      <c r="P77" s="95">
-        <v>1</v>
-      </c>
-      <c r="Q77" s="95">
-        <v>2</v>
-      </c>
-      <c r="R77" s="96">
-        <v>2</v>
-      </c>
-      <c r="S77" s="95">
-        <v>2</v>
-      </c>
-      <c r="T77" s="95">
-        <v>0</v>
-      </c>
-      <c r="U77" s="95">
-        <v>0</v>
-      </c>
-      <c r="V77" s="97">
-        <v>2</v>
-      </c>
-      <c r="W77" s="109"/>
-    </row>
-    <row r="78" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
+      <c r="B77" s="133">
+        <v>2</v>
+      </c>
+      <c r="C77" s="133">
+        <v>2</v>
+      </c>
+      <c r="D77" s="133">
+        <v>2</v>
+      </c>
+      <c r="E77" s="133">
+        <v>1</v>
+      </c>
+      <c r="F77" s="134">
+        <v>1</v>
+      </c>
+      <c r="G77" s="134">
+        <v>1</v>
+      </c>
+      <c r="H77" s="134">
+        <v>0</v>
+      </c>
+      <c r="I77" s="135">
+        <v>0</v>
+      </c>
+      <c r="J77" s="133">
+        <v>1</v>
+      </c>
+      <c r="K77" s="133">
+        <v>0</v>
+      </c>
+      <c r="L77" s="133">
+        <v>0</v>
+      </c>
+      <c r="M77" s="133">
+        <v>0</v>
+      </c>
+      <c r="N77" s="133">
+        <v>0</v>
+      </c>
+      <c r="O77" s="136">
+        <v>1</v>
+      </c>
+      <c r="P77" s="136">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="136">
+        <v>2</v>
+      </c>
+      <c r="R77" s="137">
+        <v>2</v>
+      </c>
+      <c r="S77" s="136">
+        <v>2</v>
+      </c>
+      <c r="T77" s="136">
+        <v>0</v>
+      </c>
+      <c r="U77" s="136">
+        <v>0</v>
+      </c>
+      <c r="V77" s="138">
+        <v>2</v>
+      </c>
+      <c r="W77" s="139"/>
+    </row>
+    <row r="78" spans="1:23" s="133" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="B78" s="3">
-        <v>0</v>
-      </c>
-      <c r="C78" s="3">
-        <v>5</v>
-      </c>
-      <c r="D78" s="3">
-        <v>2</v>
-      </c>
-      <c r="E78" s="3">
-        <v>1</v>
-      </c>
-      <c r="F78" s="15">
-        <v>5</v>
-      </c>
-      <c r="G78" s="15">
-        <v>2</v>
-      </c>
-      <c r="H78" s="15">
-        <v>1</v>
-      </c>
-      <c r="I78" s="16">
+      <c r="B78" s="133">
+        <v>0</v>
+      </c>
+      <c r="C78" s="133">
+        <v>5</v>
+      </c>
+      <c r="D78" s="133">
+        <v>2</v>
+      </c>
+      <c r="E78" s="133">
+        <v>1</v>
+      </c>
+      <c r="F78" s="134">
+        <v>5</v>
+      </c>
+      <c r="G78" s="134">
+        <v>2</v>
+      </c>
+      <c r="H78" s="134">
+        <v>1</v>
+      </c>
+      <c r="I78" s="135">
         <v>0.2</v>
       </c>
-      <c r="J78" s="3">
-        <v>0</v>
-      </c>
-      <c r="K78" s="3">
-        <v>0</v>
-      </c>
-      <c r="L78" s="3">
-        <v>2</v>
-      </c>
-      <c r="M78" s="3">
-        <v>5</v>
-      </c>
-      <c r="N78" s="3">
-        <v>5</v>
-      </c>
-      <c r="O78" s="95">
+      <c r="J78" s="133">
+        <v>0</v>
+      </c>
+      <c r="K78" s="133">
+        <v>0</v>
+      </c>
+      <c r="L78" s="133">
+        <v>2</v>
+      </c>
+      <c r="M78" s="133">
+        <v>5</v>
+      </c>
+      <c r="N78" s="133">
+        <v>5</v>
+      </c>
+      <c r="O78" s="136">
         <v>10</v>
       </c>
-      <c r="P78" s="95">
-        <v>5</v>
-      </c>
-      <c r="Q78" s="95">
-        <v>1</v>
-      </c>
-      <c r="R78" s="96">
-        <v>5</v>
-      </c>
-      <c r="S78" s="95">
-        <v>2</v>
-      </c>
-      <c r="T78" s="95">
-        <v>2</v>
-      </c>
-      <c r="U78" s="95">
-        <v>0</v>
-      </c>
-      <c r="V78" s="97">
+      <c r="P78" s="136">
+        <v>5</v>
+      </c>
+      <c r="Q78" s="136">
+        <v>1</v>
+      </c>
+      <c r="R78" s="137">
+        <v>5</v>
+      </c>
+      <c r="S78" s="136">
+        <v>2</v>
+      </c>
+      <c r="T78" s="136">
+        <v>2</v>
+      </c>
+      <c r="U78" s="136">
+        <v>0</v>
+      </c>
+      <c r="V78" s="138">
         <v>10</v>
       </c>
-      <c r="W78" s="109"/>
-    </row>
-    <row r="79" spans="1:23" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="W78" s="139"/>
+    </row>
+    <row r="79" spans="1:23" s="133" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="B79" s="3">
-        <v>2</v>
-      </c>
-      <c r="C79" s="3">
-        <v>1</v>
-      </c>
-      <c r="D79" s="3">
-        <v>1</v>
-      </c>
-      <c r="E79" s="3">
-        <v>2</v>
-      </c>
-      <c r="F79" s="15">
-        <v>5</v>
-      </c>
-      <c r="G79" s="15">
-        <v>1</v>
-      </c>
-      <c r="H79" s="15">
-        <v>1</v>
-      </c>
-      <c r="I79" s="16">
-        <v>0</v>
-      </c>
-      <c r="J79" s="3">
-        <v>2</v>
-      </c>
-      <c r="K79" s="3">
-        <v>2</v>
-      </c>
-      <c r="L79" s="3">
-        <v>2</v>
-      </c>
-      <c r="M79" s="3">
-        <v>2</v>
-      </c>
-      <c r="N79" s="3">
-        <v>2</v>
-      </c>
-      <c r="O79" s="98">
-        <v>1</v>
-      </c>
-      <c r="P79" s="98">
-        <v>2</v>
-      </c>
-      <c r="Q79" s="98">
-        <v>5</v>
-      </c>
-      <c r="R79" s="99">
-        <v>2</v>
-      </c>
-      <c r="S79" s="98">
-        <v>5</v>
-      </c>
-      <c r="T79" s="98">
-        <v>1</v>
-      </c>
-      <c r="U79" s="98">
-        <v>1</v>
-      </c>
-      <c r="V79" s="100">
-        <v>2</v>
-      </c>
-      <c r="W79" s="109"/>
+      <c r="B79" s="133">
+        <v>2</v>
+      </c>
+      <c r="C79" s="133">
+        <v>1</v>
+      </c>
+      <c r="D79" s="133">
+        <v>1</v>
+      </c>
+      <c r="E79" s="133">
+        <v>2</v>
+      </c>
+      <c r="F79" s="134">
+        <v>5</v>
+      </c>
+      <c r="G79" s="134">
+        <v>1</v>
+      </c>
+      <c r="H79" s="134">
+        <v>1</v>
+      </c>
+      <c r="I79" s="135">
+        <v>0</v>
+      </c>
+      <c r="J79" s="133">
+        <v>2</v>
+      </c>
+      <c r="K79" s="133">
+        <v>2</v>
+      </c>
+      <c r="L79" s="133">
+        <v>2</v>
+      </c>
+      <c r="M79" s="133">
+        <v>2</v>
+      </c>
+      <c r="N79" s="133">
+        <v>2</v>
+      </c>
+      <c r="O79" s="140">
+        <v>1</v>
+      </c>
+      <c r="P79" s="140">
+        <v>2</v>
+      </c>
+      <c r="Q79" s="140">
+        <v>5</v>
+      </c>
+      <c r="R79" s="141">
+        <v>2</v>
+      </c>
+      <c r="S79" s="140">
+        <v>5</v>
+      </c>
+      <c r="T79" s="140">
+        <v>1</v>
+      </c>
+      <c r="U79" s="140">
+        <v>1</v>
+      </c>
+      <c r="V79" s="142">
+        <v>2</v>
+      </c>
+      <c r="W79" s="139"/>
     </row>
     <row r="80" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
       <c r="I80" s="9"/>
-      <c r="O80" s="101"/>
-      <c r="P80" s="102"/>
-      <c r="Q80" s="102"/>
-      <c r="R80" s="103"/>
-      <c r="S80" s="104"/>
-      <c r="T80" s="104"/>
-      <c r="U80" s="104"/>
-      <c r="V80" s="105"/>
+      <c r="O80" s="92"/>
+      <c r="P80" s="93"/>
+      <c r="Q80" s="93"/>
+      <c r="R80" s="94"/>
+      <c r="S80" s="95"/>
+      <c r="T80" s="95"/>
+      <c r="U80" s="95"/>
+      <c r="V80" s="96"/>
     </row>
     <row r="81" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -5544,14 +5638,14 @@
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="I81" s="9"/>
-      <c r="O81" s="101"/>
-      <c r="P81" s="102"/>
-      <c r="Q81" s="102"/>
-      <c r="R81" s="103"/>
-      <c r="S81" s="104"/>
-      <c r="T81" s="104"/>
-      <c r="U81" s="104"/>
-      <c r="V81" s="105"/>
+      <c r="O81" s="92"/>
+      <c r="P81" s="93"/>
+      <c r="Q81" s="93"/>
+      <c r="R81" s="94"/>
+      <c r="S81" s="95"/>
+      <c r="T81" s="95"/>
+      <c r="U81" s="95"/>
+      <c r="V81" s="96"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
@@ -5580,7 +5674,7 @@
       <c r="U82" s="24">
         <v>1</v>
       </c>
-      <c r="V82" s="106">
+      <c r="V82" s="97">
         <v>1</v>
       </c>
     </row>
@@ -5664,7 +5758,7 @@
       <c r="U85" s="69">
         <v>1</v>
       </c>
-      <c r="V85" s="107">
+      <c r="V85" s="98">
         <v>1</v>
       </c>
     </row>
@@ -5696,7 +5790,7 @@
       <c r="S86" s="69"/>
       <c r="T86" s="69"/>
       <c r="U86" s="69"/>
-      <c r="V86" s="107"/>
+      <c r="V86" s="98"/>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
@@ -5738,7 +5832,7 @@
       <c r="S87" s="69"/>
       <c r="T87" s="69"/>
       <c r="U87" s="69"/>
-      <c r="V87" s="107"/>
+      <c r="V87" s="98"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
@@ -5758,7 +5852,7 @@
       <c r="S88" s="69"/>
       <c r="T88" s="69"/>
       <c r="U88" s="69"/>
-      <c r="V88" s="107"/>
+      <c r="V88" s="98"/>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
@@ -5782,7 +5876,7 @@
       <c r="S89" s="69"/>
       <c r="T89" s="69"/>
       <c r="U89" s="69"/>
-      <c r="V89" s="107">
+      <c r="V89" s="98">
         <v>1</v>
       </c>
     </row>
@@ -5814,26 +5908,26 @@
       <c r="U90" s="69">
         <v>1</v>
       </c>
-      <c r="V90" s="107"/>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="V90" s="98"/>
+    </row>
+    <row r="91" spans="1:22" s="114" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="9"/>
-      <c r="O91" s="69">
-        <v>1</v>
-      </c>
-      <c r="P91" s="69"/>
-      <c r="Q91" s="69"/>
-      <c r="R91" s="79"/>
-      <c r="S91" s="69"/>
-      <c r="T91" s="69"/>
-      <c r="U91" s="69"/>
-      <c r="V91" s="83"/>
+      <c r="F91" s="115"/>
+      <c r="G91" s="115"/>
+      <c r="H91" s="115"/>
+      <c r="I91" s="116"/>
+      <c r="O91" s="117">
+        <v>1</v>
+      </c>
+      <c r="P91" s="117"/>
+      <c r="Q91" s="117"/>
+      <c r="R91" s="118"/>
+      <c r="S91" s="117"/>
+      <c r="T91" s="117"/>
+      <c r="U91" s="117"/>
+      <c r="V91" s="119"/>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
@@ -5911,60 +6005,60 @@
       <c r="U94" s="69"/>
       <c r="V94" s="83"/>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="95" spans="1:22" s="108" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="F95" s="8">
-        <v>1</v>
-      </c>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="9"/>
-      <c r="O95" s="69">
-        <v>1</v>
-      </c>
-      <c r="P95" s="69"/>
-      <c r="Q95" s="69"/>
-      <c r="R95" s="79"/>
-      <c r="S95" s="69"/>
-      <c r="T95" s="69">
-        <v>1</v>
-      </c>
-      <c r="U95" s="69"/>
-      <c r="V95" s="83"/>
-    </row>
-    <row r="96" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="F95" s="109">
+        <v>1</v>
+      </c>
+      <c r="G95" s="109"/>
+      <c r="H95" s="109"/>
+      <c r="I95" s="110"/>
+      <c r="O95" s="120">
+        <v>1</v>
+      </c>
+      <c r="P95" s="120"/>
+      <c r="Q95" s="120"/>
+      <c r="R95" s="121"/>
+      <c r="S95" s="120"/>
+      <c r="T95" s="120">
+        <v>1</v>
+      </c>
+      <c r="U95" s="120"/>
+      <c r="V95" s="122"/>
+    </row>
+    <row r="96" spans="1:22" s="108" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="F96" s="8">
-        <v>1</v>
-      </c>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8">
-        <v>1</v>
-      </c>
-      <c r="I96" s="9"/>
-      <c r="O96" s="31"/>
-      <c r="P96" s="31"/>
-      <c r="Q96" s="31">
-        <v>1</v>
-      </c>
-      <c r="R96" s="108">
-        <v>1</v>
-      </c>
-      <c r="S96" s="31">
-        <v>1</v>
-      </c>
-      <c r="T96" s="31"/>
-      <c r="U96" s="31"/>
-      <c r="V96" s="32"/>
+      <c r="F96" s="109">
+        <v>1</v>
+      </c>
+      <c r="G96" s="109"/>
+      <c r="H96" s="109">
+        <v>1</v>
+      </c>
+      <c r="I96" s="110"/>
+      <c r="O96" s="111"/>
+      <c r="P96" s="111"/>
+      <c r="Q96" s="111">
+        <v>1</v>
+      </c>
+      <c r="R96" s="112">
+        <v>1</v>
+      </c>
+      <c r="S96" s="111">
+        <v>1</v>
+      </c>
+      <c r="T96" s="111"/>
+      <c r="U96" s="111"/>
+      <c r="V96" s="113"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
